--- a/sofaplayer/Ligue_1/Stade Rennais_stats.xlsx
+++ b/sofaplayer/Ligue_1/Stade Rennais_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>876600</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8210526315789</v>
+        <v>6.845</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1276</v>
+        <v>1365</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.7548</v>
+        <v>2.845</v>
       </c>
       <c r="L2" t="n">
-        <v>638</v>
+        <v>455</v>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>6.0606060606061</v>
+        <v>8.5714285714286</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1083,13 +1083,13 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.90083427</v>
+        <v>2.91005163</v>
       </c>
       <c r="AB2" t="n">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="AC2" t="n">
         <v>4</v>
@@ -1113,55 +1113,55 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AF2" t="n">
-        <v>82.920110192837</v>
+        <v>81.958762886598</v>
       </c>
       <c r="AG2" t="n">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="AH2" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AJ2" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AM2" t="n">
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.741935483871</v>
+        <v>17.460317460317</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>32.692307692308</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BB2" t="n">
-        <v>38.805970149254</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BD2" t="n">
-        <v>39.84375</v>
+        <v>39.007092198582</v>
       </c>
       <c r="BE2" t="n">
         <v>1</v>
@@ -1197,16 +1197,16 @@
         <v>16.666666666667</v>
       </c>
       <c r="BG2" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="BH2" t="n">
         <v>14</v>
       </c>
       <c r="BI2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK2" t="n">
         <v>4</v>
@@ -1221,22 +1221,22 @@
         <v>3</v>
       </c>
       <c r="BO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>129.6</v>
+        <v>136.9</v>
       </c>
       <c r="BR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT2" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>19</v>
       </c>
       <c r="CA2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CB2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CC2" t="n">
         <v>11</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK2" t="n">
         <v>1</v>
@@ -1311,13 +1311,13 @@
         <v>21</v>
       </c>
       <c r="CS2" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="CT2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CU2" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="CV2" t="n">
         <v>5</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DA2" t="n">
         <v>13</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="DG2" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>352296</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7111111111111</v>
+        <v>6.7315789473684</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1846</v>
+        <v>5.0446</v>
       </c>
       <c r="L3" t="n">
-        <v>260</v>
+        <v>219.33333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>22.727272727273</v>
+        <v>26.086956521739</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.11275695</v>
+        <v>1.11364224</v>
       </c>
       <c r="AB3" t="n">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="AC3" t="n">
         <v>2</v>
@@ -1469,28 +1469,28 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="n">
-        <v>73.221757322176</v>
+        <v>73.46938775510201</v>
       </c>
       <c r="AG3" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AH3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>72</v>
       </c>
       <c r="AK3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -1535,31 +1535,31 @@
         <v>31.25</v>
       </c>
       <c r="BA3" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BB3" t="n">
-        <v>43.333333333333</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BC3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BD3" t="n">
-        <v>43.75</v>
+        <v>44.137931034483</v>
       </c>
       <c r="BE3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF3" t="n">
-        <v>41.666666666667</v>
+        <v>41.025641025641</v>
       </c>
       <c r="BG3" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BH3" t="n">
         <v>34</v>
       </c>
       <c r="BI3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BJ3" t="n">
         <v>10</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>120.8</v>
+        <v>127.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CA3" t="n">
         <v>3</v>
@@ -1673,10 +1673,10 @@
         <v>4</v>
       </c>
       <c r="CU3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CV3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA3" t="n">
         <v>10</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="DG3" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,40 +1747,40 @@
         <v>966621</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9</v>
+        <v>6.9272727272727</v>
       </c>
       <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
       <c r="H4" t="n">
-        <v>1605</v>
+        <v>1679</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>8.7866</v>
+        <v>8.887</v>
       </c>
       <c r="L4" t="n">
-        <v>160.5</v>
+        <v>152.63636363636</v>
       </c>
       <c r="M4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
         <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>19.607843137255</v>
+        <v>20.754716981132</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -1807,16 +1807,16 @@
         <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="n">
         <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5224785199999999</v>
+        <v>0.5232315</v>
       </c>
       <c r="AB4" t="n">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.468085106383</v>
+        <v>75.254237288136</v>
       </c>
       <c r="AG4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="AH4" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AI4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="n">
         <v>8</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
@@ -1891,28 +1891,28 @@
         <v>30.769230769231</v>
       </c>
       <c r="BA4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BB4" t="n">
-        <v>37.068965517241</v>
+        <v>37.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
-        <v>33.333333333333</v>
+        <v>34.48275862069</v>
       </c>
       <c r="BE4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BF4" t="n">
-        <v>40.677966101695</v>
+        <v>40.322580645161</v>
       </c>
       <c r="BG4" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BH4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI4" t="n">
         <v>10</v>
@@ -1933,28 +1933,28 @@
         <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>144.9</v>
+        <v>152.4</v>
       </c>
       <c r="BR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BT4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CA4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CB4" t="n">
         <v>10</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2029,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="CU4" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="CV4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="DA4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB4" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="DG4" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>806076</v>
       </c>
       <c r="E5" t="n">
-        <v>6.7842105263158</v>
+        <v>6.81</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2121,13 +2121,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4171</v>
+        <v>3.4853</v>
       </c>
       <c r="L5" t="n">
-        <v>271</v>
+        <v>279.33333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>11.538461538462</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -2166,49 +2166,49 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.72029337</v>
+        <v>3.35250337</v>
       </c>
       <c r="AB5" t="n">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="n">
-        <v>85.911602209945</v>
+        <v>85.790884718499</v>
       </c>
       <c r="AG5" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AH5" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AI5" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AJ5" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK5" t="n">
         <v>14</v>
       </c>
       <c r="AL5" t="n">
-        <v>63.636363636364</v>
+        <v>60.869565217391</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
       </c>
       <c r="AN5" t="n">
-        <v>32.5</v>
+        <v>30.232558139535</v>
       </c>
       <c r="AO5" t="n">
         <v>8</v>
@@ -2217,10 +2217,10 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AS5" t="n">
         <v>11</v>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51.851851851852</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>42.708333333333</v>
+        <v>41.836734693878</v>
       </c>
       <c r="BC5" t="n">
         <v>40</v>
       </c>
       <c r="BD5" t="n">
-        <v>46.511627906977</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BE5" t="n">
         <v>1</v>
@@ -2265,16 +2265,16 @@
         <v>10</v>
       </c>
       <c r="BG5" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="BH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI5" t="n">
         <v>19</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>128.9</v>
+        <v>136.2</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2325,13 +2325,13 @@
         <v>11</v>
       </c>
       <c r="CA5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB5" t="n">
         <v>12</v>
       </c>
       <c r="CC5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CD5" t="n">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK5" t="n">
         <v>4</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CS5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CT5" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CU5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV5" t="n">
         <v>9</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DA5" t="n">
         <v>5</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="DG5" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2462,13 +2462,13 @@
         <v>6.425</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>847983</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3234,62 +3234,62 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.34116956</v>
+        <v>0.40602596</v>
       </c>
       <c r="AB8" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="n">
-        <v>77.5</v>
+        <v>74.545454545455</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>4</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>3</v>
-      </c>
       <c r="AS8" t="n">
         <v>1</v>
       </c>
@@ -3315,16 +3315,16 @@
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="n">
-        <v>55.555555555556</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
-        <v>62.5</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI8" t="n">
         <v>2</v>
       </c>
-      <c r="BI8" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
@@ -3357,22 +3357,22 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>19.6</v>
+        <v>26</v>
       </c>
       <c r="BR8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CD8" t="n">
         <v>4</v>
@@ -3420,58 +3420,58 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT8" t="n">
         <v>5</v>
       </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>2</v>
-      </c>
       <c r="CU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>4</v>
       </c>
-      <c r="CV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
+      <c r="DA8" t="n">
         <v>3</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>2</v>
       </c>
       <c r="DB8" t="n">
         <v>50</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="DG8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1102502</v>
       </c>
       <c r="E9" t="n">
-        <v>6.815</v>
+        <v>6.8095238095238</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1362</v>
+        <v>1452</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3545,22 +3545,22 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0079</v>
+        <v>1.071</v>
       </c>
       <c r="L9" t="n">
-        <v>1362</v>
+        <v>1452</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>6.25</v>
+        <v>5.5555555555556</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.87073604</v>
+        <v>2.87191568</v>
       </c>
       <c r="AB9" t="n">
-        <v>1127</v>
+        <v>1175</v>
       </c>
       <c r="AC9" t="n">
         <v>5</v>
@@ -3605,19 +3605,19 @@
         <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AF9" t="n">
-        <v>80.117820324006</v>
+        <v>79.119318181818</v>
       </c>
       <c r="AG9" t="n">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="AH9" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AI9" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AJ9" t="n">
         <v>203</v>
@@ -3626,34 +3626,34 @@
         <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>34.782608695652</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.964285714286</v>
+        <v>16.814159292035</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>72</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>69</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -3671,28 +3671,28 @@
         <v>44.444444444444</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BB9" t="n">
-        <v>52.884615384615</v>
+        <v>51.327433628319</v>
       </c>
       <c r="BC9" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.272727272727</v>
+        <v>51.041666666667</v>
       </c>
       <c r="BE9" t="n">
         <v>9</v>
       </c>
       <c r="BF9" t="n">
-        <v>56.25</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG9" t="n">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="BH9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI9" t="n">
         <v>19</v>
@@ -3713,22 +3713,22 @@
         <v>2</v>
       </c>
       <c r="BO9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>136.3</v>
+        <v>143</v>
       </c>
       <c r="BR9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS9" t="n">
         <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC9" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="CD9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK9" t="n">
         <v>5</v>
@@ -3806,52 +3806,52 @@
         <v>18</v>
       </c>
       <c r="CT9" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CU9" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="CV9" t="n">
+        <v>8</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>75</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>16</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>69.565217391304</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>239</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>465</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>7</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>69</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>70</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>227</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>452</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>6</v>
       </c>
       <c r="DJ9" t="n">
         <v>2134210</v>
@@ -3883,16 +3883,16 @@
         <v>1445628</v>
       </c>
       <c r="E10" t="n">
-        <v>6.68125</v>
+        <v>6.6941176470588</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6742</v>
+        <v>0.7047</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" t="n">
         <v>5</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.63789459</v>
+        <v>0.66644389</v>
       </c>
       <c r="AB10" t="n">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,22 +3961,22 @@
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AF10" t="n">
-        <v>81.149425287356</v>
+        <v>81.179138321995</v>
       </c>
       <c r="AG10" t="n">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AH10" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI10" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AJ10" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ10" t="n">
         <v>7</v>
@@ -4027,28 +4027,28 @@
         <v>40</v>
       </c>
       <c r="BA10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>49.473684210526</v>
+        <v>50</v>
       </c>
       <c r="BC10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BD10" t="n">
-        <v>50</v>
+        <v>51.111111111111</v>
       </c>
       <c r="BE10" t="n">
         <v>4</v>
       </c>
       <c r="BF10" t="n">
-        <v>44.444444444444</v>
+        <v>40</v>
       </c>
       <c r="BG10" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI10" t="n">
         <v>8</v>
@@ -4075,34 +4075,34 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>106.9</v>
+        <v>113.8</v>
       </c>
       <c r="BR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS10" t="n">
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="n">
         <v>7</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>6</v>
       </c>
       <c r="CA10" t="n">
         <v>15</v>
@@ -4165,10 +4165,10 @@
         <v>26</v>
       </c>
       <c r="CU10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>34</v>
       </c>
       <c r="DA10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DB10" t="n">
-        <v>48.148148148148</v>
+        <v>50</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DG10" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>581314</v>
       </c>
       <c r="E11" t="n">
-        <v>7.1105263157895</v>
+        <v>7.09</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>1665</v>
+        <v>1755</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>0.8072</v>
       </c>
       <c r="L11" t="n">
-        <v>1665</v>
+        <v>1755</v>
       </c>
       <c r="M11" t="n">
         <v>17</v>
@@ -4305,40 +4305,40 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.2641144</v>
+        <v>2.2826157</v>
       </c>
       <c r="AB11" t="n">
-        <v>1452</v>
+        <v>1507</v>
       </c>
       <c r="AC11" t="n">
         <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>1055</v>
+        <v>1096</v>
       </c>
       <c r="AF11" t="n">
-        <v>88.730025231287</v>
+        <v>88.888888888889</v>
       </c>
       <c r="AG11" t="n">
-        <v>1189</v>
+        <v>1233</v>
       </c>
       <c r="AH11" t="n">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="AI11" t="n">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="AJ11" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AK11" t="n">
         <v>31</v>
       </c>
       <c r="AL11" t="n">
-        <v>54.385964912281</v>
+        <v>52.542372881356</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -4350,19 +4350,19 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AQ11" t="n">
         <v>14</v>
       </c>
       <c r="AR11" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
@@ -4380,19 +4380,19 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BB11" t="n">
-        <v>52.694610778443</v>
+        <v>52.298850574713</v>
       </c>
       <c r="BC11" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BD11" t="n">
-        <v>52.554744525547</v>
+        <v>52.083333333333</v>
       </c>
       <c r="BE11" t="n">
         <v>16</v>
@@ -4401,7 +4401,7 @@
         <v>53.333333333333</v>
       </c>
       <c r="BG11" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BH11" t="n">
         <v>33</v>
@@ -4425,22 +4425,22 @@
         <v>4</v>
       </c>
       <c r="BO11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>135.1</v>
+        <v>141.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>13</v>
       </c>
       <c r="CC11" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CD11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK11" t="n">
         <v>5</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CS11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CT11" t="n">
         <v>9</v>
       </c>
       <c r="CU11" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="CV11" t="n">
         <v>14</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="DA11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DB11" t="n">
-        <v>70</v>
+        <v>69.767441860465</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="DG11" t="n">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>916041</v>
       </c>
       <c r="E12" t="n">
-        <v>6.5315789473684</v>
+        <v>6.535</v>
       </c>
       <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
         <v>19</v>
       </c>
-      <c r="G12" t="n">
-        <v>18</v>
-      </c>
       <c r="H12" t="n">
-        <v>1508</v>
+        <v>1598</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>1.3352</v>
       </c>
       <c r="L12" t="n">
-        <v>1508</v>
+        <v>1598</v>
       </c>
       <c r="M12" t="n">
         <v>13</v>
@@ -4661,40 +4661,40 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.86680805</v>
+        <v>1.88503975</v>
       </c>
       <c r="AB12" t="n">
-        <v>905</v>
+        <v>942</v>
       </c>
       <c r="AC12" t="n">
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="AF12" t="n">
-        <v>88.54489164086699</v>
+        <v>88.558692421991</v>
       </c>
       <c r="AG12" t="n">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="AH12" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AI12" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="AJ12" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="n">
-        <v>57.142857142857</v>
+        <v>56.25</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
@@ -4712,13 +4712,13 @@
         <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS12" t="n">
         <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
@@ -4733,22 +4733,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41.935483870968</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BB12" t="n">
-        <v>53.289473684211</v>
+        <v>52.564102564103</v>
       </c>
       <c r="BC12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BD12" t="n">
-        <v>52</v>
+        <v>51.162790697674</v>
       </c>
       <c r="BE12" t="n">
         <v>16</v>
@@ -4757,7 +4757,7 @@
         <v>59.259259259259</v>
       </c>
       <c r="BG12" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="BH12" t="n">
         <v>25</v>
@@ -4781,22 +4781,22 @@
         <v>4</v>
       </c>
       <c r="BO12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>124.1</v>
+        <v>130.7</v>
       </c>
       <c r="BR12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
       </c>
       <c r="BT12" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="BU12" t="n">
         <v>1</v>
@@ -4820,13 +4820,13 @@
         <v>5</v>
       </c>
       <c r="CB12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CD12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK12" t="n">
         <v>3</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CT12" t="n">
         <v>23</v>
       </c>
       <c r="CU12" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CV12" t="n">
         <v>11</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DA12" t="n">
         <v>18</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="DG12" t="n">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>848458</v>
       </c>
       <c r="E14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5323,19 +5323,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.035</v>
+        <v>0.1634</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -5371,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.336973</v>
+        <v>0.33718583</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5383,19 +5383,19 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>91.666666666667</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
         <v>5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>3</v>
@@ -5422,16 +5422,16 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -5449,34 +5449,34 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI14" t="n">
         <v>4</v>
       </c>
-      <c r="BB14" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>80</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14" t="n">
         <v>1</v>
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>6.8</v>
+        <v>13.4</v>
       </c>
       <c r="BR14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -5524,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CV14" t="n">
         <v>2</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -7085,32 +7085,32 @@
         <v>1545409</v>
       </c>
       <c r="E19" t="n">
-        <v>6.18</v>
+        <v>6.2833333333333</v>
       </c>
       <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>201</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>6</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>111</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.3408</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
@@ -7151,67 +7151,67 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.18395882</v>
+        <v>0.18923549</v>
       </c>
       <c r="AB19" t="n">
+        <v>158</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81.72043010752699</v>
+      </c>
+      <c r="AG19" t="n">
         <v>93</v>
       </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>47</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>88.679245283019</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>53</v>
-      </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL19" t="n">
-        <v>100</v>
+        <v>63.636363636364</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -7223,70 +7223,70 @@
         <v>1</v>
       </c>
       <c r="AY19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>50</v>
       </c>
       <c r="BC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>45</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="BR19" t="n">
         <v>6</v>
       </c>
-      <c r="BD19" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>5</v>
-      </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7307,16 +7307,16 @@
         <v>1</v>
       </c>
       <c r="CA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7334,61 +7334,61 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="n">
         <v>5</v>
       </c>
-      <c r="CK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS19" t="n">
+      <c r="CT19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA19" t="n">
         <v>2</v>
       </c>
-      <c r="CT19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>1</v>
-      </c>
       <c r="DB19" t="n">
-        <v>33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="DG19" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>991479</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9846153846154</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>1007</v>
+        <v>1097</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>0.6954</v>
       </c>
       <c r="L20" t="n">
-        <v>1007</v>
+        <v>1097</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -7507,40 +7507,40 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.21655037</v>
+        <v>0.22161803</v>
       </c>
       <c r="AB20" t="n">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="AF20" t="n">
-        <v>87.386018237082</v>
+        <v>87.096774193548</v>
       </c>
       <c r="AG20" t="n">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="AH20" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AI20" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AJ20" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>44.444444444444</v>
+        <v>43.103448275862</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
         <v>16</v>
@@ -7561,10 +7561,10 @@
         <v>34</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT20" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7585,25 +7585,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA20" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BB20" t="n">
-        <v>51.041666666667</v>
+        <v>49.50495049505</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
       </c>
       <c r="BD20" t="n">
-        <v>45.283018867925</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF20" t="n">
-        <v>58.139534883721</v>
+        <v>57.777777777778</v>
       </c>
       <c r="BG20" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BH20" t="n">
         <v>15</v>
@@ -7627,22 +7627,22 @@
         <v>3</v>
       </c>
       <c r="BO20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>90.8</v>
+        <v>98</v>
       </c>
       <c r="BR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK20" t="n">
         <v>2</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS20" t="n">
         <v>3</v>
@@ -7723,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CV20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="DA20" t="n">
         <v>8</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="DG20" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="DH20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DI20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="DJ20" t="n">
         <v>2134226</v>
@@ -7797,16 +7797,16 @@
         <v>988907</v>
       </c>
       <c r="E21" t="n">
-        <v>6.70625</v>
+        <v>6.7352941176471</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>1262</v>
+        <v>1352</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7863,40 +7863,40 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.89330436</v>
+        <v>0.8982755100000001</v>
       </c>
       <c r="AB21" t="n">
-        <v>1125</v>
+        <v>1165</v>
       </c>
       <c r="AC21" t="n">
         <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="AF21" t="n">
-        <v>84.382284382284</v>
+        <v>84.22247446084</v>
       </c>
       <c r="AG21" t="n">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="AH21" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AI21" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AJ21" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>30.864197530864</v>
+        <v>29.761904761905</v>
       </c>
       <c r="AM21" t="n">
         <v>6</v>
@@ -7905,22 +7905,22 @@
         <v>26.086956521739</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AS21" t="n">
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7941,31 +7941,31 @@
         <v>46.153846153846</v>
       </c>
       <c r="BA21" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BB21" t="n">
-        <v>54.081632653061</v>
+        <v>55.140186915888</v>
       </c>
       <c r="BC21" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="BD21" t="n">
-        <v>55.223880597015</v>
+        <v>56.756756756757</v>
       </c>
       <c r="BE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>51.515151515152</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>211</v>
+      </c>
+      <c r="BH21" t="n">
         <v>16</v>
       </c>
-      <c r="BF21" t="n">
-        <v>51.612903225806</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>205</v>
-      </c>
-      <c r="BH21" t="n">
+      <c r="BI21" t="n">
         <v>15</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>13</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -7983,22 +7983,22 @@
         <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>107.3</v>
+        <v>114.5</v>
       </c>
       <c r="BR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8022,10 +8022,10 @@
         <v>1</v>
       </c>
       <c r="CB21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CD21" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK21" t="n">
         <v>5</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS21" t="n">
         <v>13</v>
@@ -8079,10 +8079,10 @@
         <v>23</v>
       </c>
       <c r="CU21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CV21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="DA21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DB21" t="n">
-        <v>42.105263157895</v>
+        <v>45.454545454545</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="DG21" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="DH21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DI21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="DJ21" t="n">
         <v>2196267</v>
@@ -8153,16 +8153,16 @@
         <v>164055</v>
       </c>
       <c r="E22" t="n">
-        <v>6.735</v>
+        <v>6.8619047619048</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03699852</v>
+        <v>0.03735365</v>
       </c>
       <c r="AB22" t="n">
-        <v>885</v>
+        <v>941</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,53 +8229,53 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="AF22" t="n">
-        <v>76.825842696629</v>
+        <v>75.967957276368</v>
       </c>
       <c r="AG22" t="n">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="AH22" t="n">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>96</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>35.687732342007</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>169</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
         <v>14</v>
       </c>
-      <c r="AK22" t="n">
-        <v>87</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>35.510204081633</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>156</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>13</v>
-      </c>
       <c r="AU22" t="n">
         <v>0</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>100</v>
@@ -8307,19 +8307,19 @@
         <v>100</v>
       </c>
       <c r="BE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF22" t="n">
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -8331,28 +8331,28 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BN22" t="n">
         <v>5</v>
       </c>
       <c r="BO22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP22" t="n">
         <v>1</v>
       </c>
       <c r="BQ22" t="n">
-        <v>134.7</v>
+        <v>144.1</v>
       </c>
       <c r="BR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="CD22" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8394,28 +8394,28 @@
         <v>4</v>
       </c>
       <c r="CH22" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CI22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CJ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CK22" t="n">
         <v>4</v>
       </c>
       <c r="CL22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8463,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DF22" t="n">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="DG22" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DH22" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-3.1384</v>
+        <v>-2.0008</v>
       </c>
     </row>
     <row r="23">

--- a/sofaplayer/Ligue_1/Stade Rennais_stats.xlsx
+++ b/sofaplayer/Ligue_1/Stade Rennais_stats.xlsx
@@ -8165,7 +8165,7 @@
         <v>1890</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
